--- a/data/trans_media/Q24D_2-Provincia-trans_media.xlsx
+++ b/data/trans_media/Q24D_2-Provincia-trans_media.xlsx
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,67</t>
+          <t>3,04; 5,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,58</t>
+          <t>2,48; 3,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -884,12 +884,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,39</t>
+          <t>2,13; 3,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 3,77</t>
+          <t>1,89; 3,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,82; 4,46</t>
+          <t>2,82; 4,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,35; 3,24</t>
+          <t>2,36; 3,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 2,6</t>
+          <t>1,92; 2,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 2,33</t>
+          <t>1,89; 2,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,04</t>
+          <t>1,87; 3,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 4,33</t>
+          <t>2,6; 4,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1164,12 +1164,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,84; 2,77</t>
+          <t>1,85; 2,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,25</t>
+          <t>2,49; 3,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1184,12 +1184,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 3,17</t>
+          <t>2,0; 3,42</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 3,82</t>
+          <t>2,69; 3,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,52</t>
+          <t>2,19; 4,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,03</t>
+          <t>2,43; 3,97</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,23</t>
+          <t>2,52; 3,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,03; 2,59</t>
+          <t>2,06; 2,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,37; 2,86</t>
+          <t>2,37; 2,87</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,41</t>
+          <t>2,25; 4,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,86; 2,39</t>
+          <t>1,87; 2,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,96; 2,96</t>
+          <t>1,93; 2,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1744,12 +1744,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,29; 3,62</t>
+          <t>2,26; 3,49</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1,91; 2,29</t>
+          <t>1,9; 2,27</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1844,12 +1844,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,51; 3,3</t>
+          <t>2,47; 3,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,03</t>
+          <t>2,5; 3,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,03; 2,4</t>
+          <t>2,01; 2,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,35; 2,83</t>
+          <t>2,34; 2,83</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">

--- a/data/trans_media/Q24D_2-Provincia-trans_media.xlsx
+++ b/data/trans_media/Q24D_2-Provincia-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,84; 2,8</t>
+          <t>1,84; 2,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 2,79</t>
+          <t>2,01; 2,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 2,76</t>
+          <t>1,52; 2,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 3,5</t>
+          <t>2,15; 3,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,85; 2,6</t>
+          <t>1,84; 2,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 2,81</t>
+          <t>2,2; 2,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,04; 5,59</t>
+          <t>3,03; 5,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,48; 3,57</t>
+          <t>2,49; 3,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 2,6</t>
+          <t>1,88; 2,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,48</t>
+          <t>2,11; 3,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 3,75</t>
+          <t>1,9; 3,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,41; 1,96</t>
+          <t>1,4; 1,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,82; 4,41</t>
+          <t>2,78; 4,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,36; 3,27</t>
+          <t>2,34; 3,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 2,26</t>
+          <t>1,74; 2,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 1,9</t>
+          <t>1,43; 1,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 2,6</t>
+          <t>1,9; 2,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 2,26</t>
+          <t>1,48; 2,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,22</t>
+          <t>1,49; 2,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 2,3</t>
+          <t>1,75; 2,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,82; 2,97</t>
+          <t>1,83; 2,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 1,95</t>
+          <t>1,54; 1,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 2,32</t>
+          <t>1,91; 2,33</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,61</t>
+          <t>1,77; 2,52</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 3,98</t>
+          <t>1,89; 4,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,6; 4,48</t>
+          <t>2,62; 4,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,88; 4,37</t>
+          <t>2,89; 4,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,85; 2,78</t>
+          <t>1,84; 2,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,49; 3,19</t>
+          <t>2,5; 3,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 5,18</t>
+          <t>2,57; 5,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,0; 3,42</t>
+          <t>2,02; 3,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 3,66</t>
+          <t>2,64; 3,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 4,24</t>
+          <t>2,89; 4,15</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,82; 6,29</t>
+          <t>2,88; 6,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,19; 4,58</t>
+          <t>2,18; 4,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,12</t>
+          <t>2,48; 3,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,0; 3,33</t>
+          <t>1,98; 3,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,36; 4,5</t>
+          <t>2,34; 4,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,55; 3,53</t>
+          <t>2,55; 3,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,12 +1324,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,68; 4,73</t>
+          <t>2,6; 4,64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,43; 3,97</t>
+          <t>2,47; 4,02</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,48; 1,93</t>
+          <t>1,47; 1,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,93; 2,88</t>
+          <t>1,99; 2,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,7; 3,85</t>
+          <t>1,73; 3,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,84</t>
+          <t>1,61; 2,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,9; 2,74</t>
+          <t>1,91; 2,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,47</t>
+          <t>1,36; 2,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,62; 2,16</t>
+          <t>1,62; 2,18</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,03; 2,67</t>
+          <t>2,02; 2,7</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,23</t>
+          <t>1,73; 3,16</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,17</t>
+          <t>2,05; 4,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,52; 3,26</t>
+          <t>2,53; 3,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,16; 3,4</t>
+          <t>2,17; 3,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,59; 2,13</t>
+          <t>1,59; 2,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,06; 2,64</t>
+          <t>2,05; 2,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,8; 2,49</t>
+          <t>1,82; 2,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,93; 3,16</t>
+          <t>1,93; 3,18</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,37; 2,87</t>
+          <t>2,36; 2,86</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,1; 2,83</t>
+          <t>2,11; 2,79</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,53</t>
+          <t>2,3; 4,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,87; 2,4</t>
+          <t>1,85; 2,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,95; 2,41</t>
+          <t>1,94; 2,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,93; 2,91</t>
+          <t>1,94; 2,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,8; 2,39</t>
+          <t>1,8; 2,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,15; 2,74</t>
+          <t>2,16; 2,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,12 +1744,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,49</t>
+          <t>2,25; 3,59</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1,9; 2,27</t>
+          <t>1,9; 2,28</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,47; 3,23</t>
+          <t>2,49; 3,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,04</t>
+          <t>2,48; 3,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,38; 2,76</t>
+          <t>2,37; 2,76</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,01; 2,39</t>
+          <t>2,03; 2,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,29; 2,65</t>
+          <t>2,28; 2,63</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,32; 2,8</t>
+          <t>2,3; 2,82</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,34; 2,83</t>
+          <t>2,35; 2,83</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>2,44; 2,76</t>
+          <t>2,45; 2,77</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>2,39; 2,71</t>
+          <t>2,39; 2,68</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
